--- a/data-migration/xlsx_1900-/1904_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1904_Sommer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBC4973-2845-4DB1-A7F9-C8A756DF2D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FDB6D0-06A6-4324-B8D3-84EBB79C4D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3227,9 +3227,6 @@
     <t>stoppany_ga</t>
   </si>
   <si>
-    <t>gysi_fe</t>
-  </si>
-  <si>
     <t>zangger_h</t>
   </si>
   <si>
@@ -3513,6 +3510,9 @@
   </si>
   <si>
     <t>HP</t>
+  </si>
+  <si>
+    <t>gysi_a</t>
   </si>
 </sst>
 </file>
@@ -3857,7 +3857,7 @@
   <dimension ref="A1:P392"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="G164" sqref="G164"/>
+      <selection activeCell="G174" sqref="G174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3879,7 +3879,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F1" t="s">
         <v>394</v>
@@ -3891,7 +3891,7 @@
         <v>1017</v>
       </c>
       <c r="I1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3905,7 +3905,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F2" t="s">
         <v>395</v>
@@ -3917,10 +3917,10 @@
         <v>1018</v>
       </c>
       <c r="I2" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J2" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3934,7 +3934,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F3" t="s">
         <v>396</v>
@@ -3946,10 +3946,10 @@
         <v>1018</v>
       </c>
       <c r="I3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3963,7 +3963,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F4" t="s">
         <v>397</v>
@@ -3975,10 +3975,10 @@
         <v>1018</v>
       </c>
       <c r="I4" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3992,7 +3992,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F5" t="s">
         <v>398</v>
@@ -4004,7 +4004,7 @@
         <v>1019</v>
       </c>
       <c r="I5" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -4018,7 +4018,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F6" t="s">
         <v>399</v>
@@ -4030,7 +4030,7 @@
         <v>1020</v>
       </c>
       <c r="I6" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -4044,7 +4044,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F7" t="s">
         <v>400</v>
@@ -4056,7 +4056,7 @@
         <v>1020</v>
       </c>
       <c r="I7" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -4070,7 +4070,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F8" t="s">
         <v>401</v>
@@ -4082,7 +4082,7 @@
         <v>1021</v>
       </c>
       <c r="I8" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -4096,7 +4096,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F9" t="s">
         <v>402</v>
@@ -4108,7 +4108,7 @@
         <v>1021</v>
       </c>
       <c r="I9" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -4122,7 +4122,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F10" t="s">
         <v>403</v>
@@ -4134,7 +4134,7 @@
         <v>1019</v>
       </c>
       <c r="I10" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4148,7 +4148,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F11" t="s">
         <v>404</v>
@@ -4160,7 +4160,7 @@
         <v>1021</v>
       </c>
       <c r="I11" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4174,7 +4174,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F12" t="s">
         <v>405</v>
@@ -4186,7 +4186,7 @@
         <v>1021</v>
       </c>
       <c r="I12" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -4200,7 +4200,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F13" t="s">
         <v>406</v>
@@ -4209,10 +4209,10 @@
         <v>794</v>
       </c>
       <c r="H13" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="I13" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -4226,7 +4226,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F14" t="s">
         <v>407</v>
@@ -4235,10 +4235,10 @@
         <v>795</v>
       </c>
       <c r="H14" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="I14" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -4252,7 +4252,7 @@
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F15" t="s">
         <v>408</v>
@@ -4261,10 +4261,10 @@
         <v>791</v>
       </c>
       <c r="H15" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="I15" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4278,7 +4278,7 @@
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F16" t="s">
         <v>409</v>
@@ -4290,7 +4290,7 @@
         <v>1022</v>
       </c>
       <c r="I16" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -4304,7 +4304,7 @@
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F17" t="s">
         <v>410</v>
@@ -4313,10 +4313,10 @@
         <v>796</v>
       </c>
       <c r="H17" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I17" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -4330,7 +4330,7 @@
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F18" t="s">
         <v>411</v>
@@ -4339,10 +4339,10 @@
         <v>791</v>
       </c>
       <c r="H18" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I18" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -4356,7 +4356,7 @@
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F19" t="s">
         <v>412</v>
@@ -4368,7 +4368,7 @@
         <v>1022</v>
       </c>
       <c r="I19" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -4382,7 +4382,7 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F20" t="s">
         <v>413</v>
@@ -4394,7 +4394,7 @@
         <v>1022</v>
       </c>
       <c r="I20" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -4408,7 +4408,7 @@
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F21" t="s">
         <v>414</v>
@@ -4417,10 +4417,10 @@
         <v>798</v>
       </c>
       <c r="H21" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I21" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -4434,7 +4434,7 @@
         <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F22" t="s">
         <v>415</v>
@@ -4446,7 +4446,7 @@
         <v>1022</v>
       </c>
       <c r="I22" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -4460,7 +4460,7 @@
         <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F23" t="s">
         <v>416</v>
@@ -4469,10 +4469,10 @@
         <v>788</v>
       </c>
       <c r="H23" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="I23" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -4486,7 +4486,7 @@
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F24" t="s">
         <v>417</v>
@@ -4498,7 +4498,7 @@
         <v>1022</v>
       </c>
       <c r="I24" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -4512,7 +4512,7 @@
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F25" t="s">
         <v>418</v>
@@ -4521,10 +4521,10 @@
         <v>801</v>
       </c>
       <c r="H25" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="I25" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -4538,7 +4538,7 @@
         <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F26" t="s">
         <v>419</v>
@@ -4547,10 +4547,10 @@
         <v>791</v>
       </c>
       <c r="H26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="I26" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -4564,7 +4564,7 @@
         <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F27" t="s">
         <v>420</v>
@@ -4576,10 +4576,10 @@
         <v>1018</v>
       </c>
       <c r="I27" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J27" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -4593,7 +4593,7 @@
         <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F28" t="s">
         <v>421</v>
@@ -4605,7 +4605,7 @@
         <v>1021</v>
       </c>
       <c r="I28" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -4619,7 +4619,7 @@
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F29" t="s">
         <v>422</v>
@@ -4628,10 +4628,10 @@
         <v>803</v>
       </c>
       <c r="H29" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="I29" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -4645,7 +4645,7 @@
         <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F30" t="s">
         <v>423</v>
@@ -4654,10 +4654,10 @@
         <v>804</v>
       </c>
       <c r="H30" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I30" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -4671,7 +4671,7 @@
         <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F31" t="s">
         <v>424</v>
@@ -4683,7 +4683,7 @@
         <v>1022</v>
       </c>
       <c r="I31" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -4697,7 +4697,7 @@
         <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F32" t="s">
         <v>425</v>
@@ -4706,10 +4706,10 @@
         <v>806</v>
       </c>
       <c r="H32" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I32" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -4723,7 +4723,7 @@
         <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F33" t="s">
         <v>426</v>
@@ -4735,10 +4735,10 @@
         <v>1025</v>
       </c>
       <c r="I33" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J33" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -4752,7 +4752,7 @@
         <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F34" t="s">
         <v>427</v>
@@ -4764,10 +4764,10 @@
         <v>1025</v>
       </c>
       <c r="I34" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J34" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -4781,7 +4781,7 @@
         <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F35" t="s">
         <v>428</v>
@@ -4790,10 +4790,10 @@
         <v>784</v>
       </c>
       <c r="H35" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I35" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -4807,7 +4807,7 @@
         <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F36" t="s">
         <v>429</v>
@@ -4819,7 +4819,7 @@
         <v>1026</v>
       </c>
       <c r="I36" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -4833,7 +4833,7 @@
         <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F37" t="s">
         <v>430</v>
@@ -4845,7 +4845,7 @@
         <v>1027</v>
       </c>
       <c r="I37" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -4859,7 +4859,7 @@
         <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F38" t="s">
         <v>431</v>
@@ -4871,7 +4871,7 @@
         <v>1026</v>
       </c>
       <c r="I38" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -4885,7 +4885,7 @@
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F39" t="s">
         <v>432</v>
@@ -4897,7 +4897,7 @@
         <v>1024</v>
       </c>
       <c r="I39" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -4911,7 +4911,7 @@
         <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F40" t="s">
         <v>433</v>
@@ -4923,7 +4923,7 @@
         <v>1024</v>
       </c>
       <c r="I40" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -4937,7 +4937,7 @@
         <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F41" t="s">
         <v>434</v>
@@ -4949,7 +4949,7 @@
         <v>1024</v>
       </c>
       <c r="I41" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -4963,7 +4963,7 @@
         <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F42" t="s">
         <v>435</v>
@@ -4975,7 +4975,7 @@
         <v>1028</v>
       </c>
       <c r="I42" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -4989,7 +4989,7 @@
         <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F43" t="s">
         <v>436</v>
@@ -5001,7 +5001,7 @@
         <v>1029</v>
       </c>
       <c r="I43" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -5015,7 +5015,7 @@
         <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F44" t="s">
         <v>437</v>
@@ -5027,7 +5027,7 @@
         <v>1030</v>
       </c>
       <c r="I44" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -5041,7 +5041,7 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F45" t="s">
         <v>438</v>
@@ -5053,7 +5053,7 @@
         <v>1030</v>
       </c>
       <c r="I45" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -5067,7 +5067,7 @@
         <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F46" t="s">
         <v>439</v>
@@ -5079,7 +5079,7 @@
         <v>1030</v>
       </c>
       <c r="I46" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -5093,7 +5093,7 @@
         <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F47" t="s">
         <v>440</v>
@@ -5105,7 +5105,7 @@
         <v>1029</v>
       </c>
       <c r="I47" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -5119,7 +5119,7 @@
         <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F48" t="s">
         <v>441</v>
@@ -5131,7 +5131,7 @@
         <v>1029</v>
       </c>
       <c r="I48" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -5145,7 +5145,7 @@
         <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F49" t="s">
         <v>442</v>
@@ -5154,10 +5154,10 @@
         <v>820</v>
       </c>
       <c r="H49" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="I49" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -5171,7 +5171,7 @@
         <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F50" t="s">
         <v>443</v>
@@ -5183,7 +5183,7 @@
         <v>1031</v>
       </c>
       <c r="I50" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -5197,7 +5197,7 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F51" t="s">
         <v>444</v>
@@ -5209,7 +5209,7 @@
         <v>1031</v>
       </c>
       <c r="I51" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -5223,7 +5223,7 @@
         <v>53</v>
       </c>
       <c r="E52" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F52" t="s">
         <v>445</v>
@@ -5232,10 +5232,10 @@
         <v>823</v>
       </c>
       <c r="H52" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="I52" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -5249,7 +5249,7 @@
         <v>54</v>
       </c>
       <c r="E53" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F53" t="s">
         <v>446</v>
@@ -5261,7 +5261,7 @@
         <v>1032</v>
       </c>
       <c r="I53" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -5275,7 +5275,7 @@
         <v>55</v>
       </c>
       <c r="E54" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F54" t="s">
         <v>447</v>
@@ -5287,7 +5287,7 @@
         <v>1032</v>
       </c>
       <c r="I54" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -5301,7 +5301,7 @@
         <v>56</v>
       </c>
       <c r="E55" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F55" t="s">
         <v>448</v>
@@ -5313,7 +5313,7 @@
         <v>1033</v>
       </c>
       <c r="I55" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -5327,7 +5327,7 @@
         <v>57</v>
       </c>
       <c r="E56" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F56" t="s">
         <v>449</v>
@@ -5336,10 +5336,10 @@
         <v>827</v>
       </c>
       <c r="H56" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="I56" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -5353,7 +5353,7 @@
         <v>58</v>
       </c>
       <c r="E57" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F57" t="s">
         <v>450</v>
@@ -5362,10 +5362,10 @@
         <v>828</v>
       </c>
       <c r="H57" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="I57" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -5379,7 +5379,7 @@
         <v>59</v>
       </c>
       <c r="E58" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F58" t="s">
         <v>451</v>
@@ -5388,10 +5388,10 @@
         <v>829</v>
       </c>
       <c r="H58" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="I58" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -5405,7 +5405,7 @@
         <v>60</v>
       </c>
       <c r="E59" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F59" t="s">
         <v>452</v>
@@ -5414,10 +5414,10 @@
         <v>830</v>
       </c>
       <c r="H59" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="I59" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -5431,7 +5431,7 @@
         <v>61</v>
       </c>
       <c r="E60" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F60" t="s">
         <v>453</v>
@@ -5443,7 +5443,7 @@
         <v>1034</v>
       </c>
       <c r="I60" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -5457,7 +5457,7 @@
         <v>62</v>
       </c>
       <c r="E61" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F61" t="s">
         <v>454</v>
@@ -5466,10 +5466,10 @@
         <v>832</v>
       </c>
       <c r="H61" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I61" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -5483,7 +5483,7 @@
         <v>63</v>
       </c>
       <c r="E62" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F62" t="s">
         <v>455</v>
@@ -5492,10 +5492,10 @@
         <v>829</v>
       </c>
       <c r="H62" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I62" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -5509,7 +5509,7 @@
         <v>64</v>
       </c>
       <c r="E63" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F63" t="s">
         <v>456</v>
@@ -5521,7 +5521,7 @@
         <v>1025</v>
       </c>
       <c r="I63" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -5535,7 +5535,7 @@
         <v>65</v>
       </c>
       <c r="E64" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F64" t="s">
         <v>457</v>
@@ -5547,7 +5547,7 @@
         <v>1026</v>
       </c>
       <c r="I64" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -5561,7 +5561,7 @@
         <v>66</v>
       </c>
       <c r="E65" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F65" t="s">
         <v>458</v>
@@ -5573,7 +5573,7 @@
         <v>1024</v>
       </c>
       <c r="I65" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -5587,7 +5587,7 @@
         <v>67</v>
       </c>
       <c r="E66" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F66" t="s">
         <v>459</v>
@@ -5599,7 +5599,7 @@
         <v>1029</v>
       </c>
       <c r="I66" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -5613,7 +5613,7 @@
         <v>68</v>
       </c>
       <c r="E67" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F67" t="s">
         <v>460</v>
@@ -5625,7 +5625,7 @@
         <v>1028</v>
       </c>
       <c r="I67" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -5639,7 +5639,7 @@
         <v>69</v>
       </c>
       <c r="E68" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F68" t="s">
         <v>461</v>
@@ -5651,7 +5651,7 @@
         <v>1031</v>
       </c>
       <c r="I68" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -5665,7 +5665,7 @@
         <v>70</v>
       </c>
       <c r="E69" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F69" t="s">
         <v>462</v>
@@ -5677,7 +5677,7 @@
         <v>1032</v>
       </c>
       <c r="I69" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -5691,7 +5691,7 @@
         <v>71</v>
       </c>
       <c r="E70" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F70" t="s">
         <v>463</v>
@@ -5700,10 +5700,10 @@
         <v>840</v>
       </c>
       <c r="H70" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="I70" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -5717,7 +5717,7 @@
         <v>72</v>
       </c>
       <c r="E71" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F71" t="s">
         <v>464</v>
@@ -5726,10 +5726,10 @@
         <v>841</v>
       </c>
       <c r="H71" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="I71" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -5743,7 +5743,7 @@
         <v>73</v>
       </c>
       <c r="E72" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F72" t="s">
         <v>465</v>
@@ -5752,10 +5752,10 @@
         <v>842</v>
       </c>
       <c r="H72" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="I72" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -5769,7 +5769,7 @@
         <v>74</v>
       </c>
       <c r="E73" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F73" t="s">
         <v>466</v>
@@ -5781,7 +5781,7 @@
         <v>1035</v>
       </c>
       <c r="I73" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -5795,7 +5795,7 @@
         <v>75</v>
       </c>
       <c r="E74" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F74" t="s">
         <v>467</v>
@@ -5807,13 +5807,13 @@
         <v>1035</v>
       </c>
       <c r="I74" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="K74" t="s">
         <v>1036</v>
       </c>
       <c r="L74" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -5827,7 +5827,7 @@
         <v>76</v>
       </c>
       <c r="E75" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F75" t="s">
         <v>468</v>
@@ -5839,7 +5839,7 @@
         <v>1035</v>
       </c>
       <c r="I75" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -5853,7 +5853,7 @@
         <v>77</v>
       </c>
       <c r="E76" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F76" t="s">
         <v>469</v>
@@ -5865,7 +5865,7 @@
         <v>1035</v>
       </c>
       <c r="I76" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -5879,7 +5879,7 @@
         <v>78</v>
       </c>
       <c r="E77" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F77" t="s">
         <v>470</v>
@@ -5891,7 +5891,7 @@
         <v>1035</v>
       </c>
       <c r="I77" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -5905,7 +5905,7 @@
         <v>79</v>
       </c>
       <c r="E78" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F78" t="s">
         <v>471</v>
@@ -5917,7 +5917,7 @@
         <v>1036</v>
       </c>
       <c r="I78" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -5931,7 +5931,7 @@
         <v>80</v>
       </c>
       <c r="E79" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F79" t="s">
         <v>472</v>
@@ -5943,7 +5943,7 @@
         <v>1036</v>
       </c>
       <c r="I79" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -5957,7 +5957,7 @@
         <v>81</v>
       </c>
       <c r="E80" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F80" t="s">
         <v>473</v>
@@ -5969,7 +5969,7 @@
         <v>1037</v>
       </c>
       <c r="I80" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -5983,7 +5983,7 @@
         <v>82</v>
       </c>
       <c r="E81" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F81" t="s">
         <v>474</v>
@@ -5992,10 +5992,10 @@
         <v>850</v>
       </c>
       <c r="H81" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="I81" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -6009,7 +6009,7 @@
         <v>83</v>
       </c>
       <c r="E82" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F82" t="s">
         <v>475</v>
@@ -6018,10 +6018,10 @@
         <v>851</v>
       </c>
       <c r="H82" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="I82" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -6035,7 +6035,7 @@
         <v>84</v>
       </c>
       <c r="E83" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F83" t="s">
         <v>476</v>
@@ -6044,10 +6044,10 @@
         <v>852</v>
       </c>
       <c r="H83" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="I83" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -6061,7 +6061,7 @@
         <v>85</v>
       </c>
       <c r="E84" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F84" t="s">
         <v>477</v>
@@ -6073,7 +6073,7 @@
         <v>1038</v>
       </c>
       <c r="I84" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -6087,7 +6087,7 @@
         <v>86</v>
       </c>
       <c r="E85" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F85" t="s">
         <v>478</v>
@@ -6099,7 +6099,7 @@
         <v>1038</v>
       </c>
       <c r="I85" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -6113,7 +6113,7 @@
         <v>87</v>
       </c>
       <c r="E86" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F86" t="s">
         <v>479</v>
@@ -6125,7 +6125,7 @@
         <v>1038</v>
       </c>
       <c r="I86" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -6139,7 +6139,7 @@
         <v>88</v>
       </c>
       <c r="E87" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F87" t="s">
         <v>480</v>
@@ -6151,7 +6151,7 @@
         <v>1038</v>
       </c>
       <c r="I87" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -6165,7 +6165,7 @@
         <v>89</v>
       </c>
       <c r="E88" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F88" t="s">
         <v>481</v>
@@ -6177,7 +6177,7 @@
         <v>1039</v>
       </c>
       <c r="I88" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -6191,7 +6191,7 @@
         <v>90</v>
       </c>
       <c r="E89" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F89" t="s">
         <v>482</v>
@@ -6203,7 +6203,7 @@
         <v>1039</v>
       </c>
       <c r="I89" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -6217,7 +6217,7 @@
         <v>91</v>
       </c>
       <c r="E90" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F90" t="s">
         <v>483</v>
@@ -6226,10 +6226,10 @@
         <v>791</v>
       </c>
       <c r="H90" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="I90" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -6243,7 +6243,7 @@
         <v>92</v>
       </c>
       <c r="E91" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F91" t="s">
         <v>484</v>
@@ -6255,7 +6255,7 @@
         <v>1040</v>
       </c>
       <c r="I91" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -6269,7 +6269,7 @@
         <v>93</v>
       </c>
       <c r="E92" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F92" t="s">
         <v>485</v>
@@ -6278,10 +6278,10 @@
         <v>856</v>
       </c>
       <c r="H92" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="I92" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -6295,7 +6295,7 @@
         <v>94</v>
       </c>
       <c r="E93" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F93" t="s">
         <v>486</v>
@@ -6304,10 +6304,10 @@
         <v>857</v>
       </c>
       <c r="H93" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="I93" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -6321,7 +6321,7 @@
         <v>95</v>
       </c>
       <c r="E94" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F94" t="s">
         <v>487</v>
@@ -6330,10 +6330,10 @@
         <v>858</v>
       </c>
       <c r="H94" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="I94" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -6347,7 +6347,7 @@
         <v>96</v>
       </c>
       <c r="E95" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F95" t="s">
         <v>488</v>
@@ -6356,10 +6356,10 @@
         <v>859</v>
       </c>
       <c r="H95" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="I95" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -6373,7 +6373,7 @@
         <v>97</v>
       </c>
       <c r="E96" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F96" t="s">
         <v>489</v>
@@ -6382,10 +6382,10 @@
         <v>860</v>
       </c>
       <c r="H96" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="I96" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -6399,7 +6399,7 @@
         <v>98</v>
       </c>
       <c r="E97" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F97" t="s">
         <v>490</v>
@@ -6408,10 +6408,10 @@
         <v>861</v>
       </c>
       <c r="H97" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="I97" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -6425,7 +6425,7 @@
         <v>99</v>
       </c>
       <c r="E98" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F98" t="s">
         <v>491</v>
@@ -6434,10 +6434,10 @@
         <v>797</v>
       </c>
       <c r="H98" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="I98" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -6451,7 +6451,7 @@
         <v>100</v>
       </c>
       <c r="E99" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F99" t="s">
         <v>492</v>
@@ -6460,13 +6460,13 @@
         <v>862</v>
       </c>
       <c r="H99" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="I99" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J99" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -6480,7 +6480,7 @@
         <v>101</v>
       </c>
       <c r="E100" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F100" t="s">
         <v>493</v>
@@ -6489,13 +6489,13 @@
         <v>863</v>
       </c>
       <c r="H100" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="I100" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J100" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -6509,7 +6509,7 @@
         <v>102</v>
       </c>
       <c r="E101" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F101" t="s">
         <v>494</v>
@@ -6518,13 +6518,13 @@
         <v>864</v>
       </c>
       <c r="H101" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="I101" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J101" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -6538,7 +6538,7 @@
         <v>103</v>
       </c>
       <c r="E102" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F102" t="s">
         <v>495</v>
@@ -6547,13 +6547,13 @@
         <v>865</v>
       </c>
       <c r="H102" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="I102" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J102" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -6567,7 +6567,7 @@
         <v>104</v>
       </c>
       <c r="E103" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F103" t="s">
         <v>496</v>
@@ -6576,13 +6576,13 @@
         <v>847</v>
       </c>
       <c r="H103" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="I103" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J103" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -6596,7 +6596,7 @@
         <v>105</v>
       </c>
       <c r="E104" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F104" t="s">
         <v>497</v>
@@ -6605,10 +6605,10 @@
         <v>866</v>
       </c>
       <c r="H104" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="I104" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -6622,7 +6622,7 @@
         <v>106</v>
       </c>
       <c r="E105" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F105" t="s">
         <v>498</v>
@@ -6631,10 +6631,10 @@
         <v>867</v>
       </c>
       <c r="H105" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="I105" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -6648,7 +6648,7 @@
         <v>107</v>
       </c>
       <c r="E106" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F106" t="s">
         <v>499</v>
@@ -6660,7 +6660,7 @@
         <v>1042</v>
       </c>
       <c r="I106" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -6674,7 +6674,7 @@
         <v>108</v>
       </c>
       <c r="E107" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F107" t="s">
         <v>500</v>
@@ -6686,7 +6686,7 @@
         <v>1043</v>
       </c>
       <c r="I107" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -6700,7 +6700,7 @@
         <v>109</v>
       </c>
       <c r="E108" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F108" t="s">
         <v>501</v>
@@ -6712,7 +6712,7 @@
         <v>1043</v>
       </c>
       <c r="I108" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -6726,7 +6726,7 @@
         <v>110</v>
       </c>
       <c r="E109" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F109" t="s">
         <v>502</v>
@@ -6738,7 +6738,7 @@
         <v>1043</v>
       </c>
       <c r="I109" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -6752,7 +6752,7 @@
         <v>111</v>
       </c>
       <c r="E110" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F110" t="s">
         <v>503</v>
@@ -6764,7 +6764,7 @@
         <v>1043</v>
       </c>
       <c r="I110" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -6778,7 +6778,7 @@
         <v>112</v>
       </c>
       <c r="E111" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F111" t="s">
         <v>504</v>
@@ -6790,7 +6790,7 @@
         <v>1044</v>
       </c>
       <c r="I111" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -6804,7 +6804,7 @@
         <v>113</v>
       </c>
       <c r="E112" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F112" t="s">
         <v>505</v>
@@ -6816,7 +6816,7 @@
         <v>1044</v>
       </c>
       <c r="I112" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -6830,7 +6830,7 @@
         <v>114</v>
       </c>
       <c r="E113" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F113" t="s">
         <v>506</v>
@@ -6842,7 +6842,7 @@
         <v>1044</v>
       </c>
       <c r="I113" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -6856,7 +6856,7 @@
         <v>115</v>
       </c>
       <c r="E114" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F114" t="s">
         <v>507</v>
@@ -6865,10 +6865,10 @@
         <v>797</v>
       </c>
       <c r="H114" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="I114" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -6882,7 +6882,7 @@
         <v>116</v>
       </c>
       <c r="E115" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F115" t="s">
         <v>508</v>
@@ -6891,10 +6891,10 @@
         <v>797</v>
       </c>
       <c r="H115" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="I115" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -6908,7 +6908,7 @@
         <v>117</v>
       </c>
       <c r="E116" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F116" t="s">
         <v>509</v>
@@ -6917,10 +6917,10 @@
         <v>797</v>
       </c>
       <c r="H116" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="I116" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -6934,7 +6934,7 @@
         <v>118</v>
       </c>
       <c r="E117" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F117" t="s">
         <v>510</v>
@@ -6943,10 +6943,10 @@
         <v>871</v>
       </c>
       <c r="H117" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="I117" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -6960,7 +6960,7 @@
         <v>119</v>
       </c>
       <c r="E118" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F118" t="s">
         <v>511</v>
@@ -6969,10 +6969,10 @@
         <v>791</v>
       </c>
       <c r="H118" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="I118" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -6986,7 +6986,7 @@
         <v>120</v>
       </c>
       <c r="E119" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F119" t="s">
         <v>512</v>
@@ -6995,10 +6995,10 @@
         <v>797</v>
       </c>
       <c r="H119" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="I119" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -7012,7 +7012,7 @@
         <v>121</v>
       </c>
       <c r="E120" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F120" t="s">
         <v>513</v>
@@ -7024,7 +7024,7 @@
         <v>1046</v>
       </c>
       <c r="I120" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -7038,7 +7038,7 @@
         <v>122</v>
       </c>
       <c r="E121" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F121" t="s">
         <v>514</v>
@@ -7050,7 +7050,7 @@
         <v>1046</v>
       </c>
       <c r="I121" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -7064,7 +7064,7 @@
         <v>123</v>
       </c>
       <c r="E122" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F122" t="s">
         <v>515</v>
@@ -7073,10 +7073,10 @@
         <v>791</v>
       </c>
       <c r="H122" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="I122" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -7090,7 +7090,7 @@
         <v>124</v>
       </c>
       <c r="E123" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F123" t="s">
         <v>516</v>
@@ -7099,10 +7099,10 @@
         <v>873</v>
       </c>
       <c r="H123" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="I123" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -7116,7 +7116,7 @@
         <v>125</v>
       </c>
       <c r="E124" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F124" t="s">
         <v>517</v>
@@ -7128,7 +7128,7 @@
         <v>1047</v>
       </c>
       <c r="I124" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -7142,7 +7142,7 @@
         <v>126</v>
       </c>
       <c r="E125" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F125" t="s">
         <v>518</v>
@@ -7154,7 +7154,7 @@
         <v>1047</v>
       </c>
       <c r="I125" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -7168,7 +7168,7 @@
         <v>127</v>
       </c>
       <c r="E126" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F126" t="s">
         <v>519</v>
@@ -7180,7 +7180,7 @@
         <v>1047</v>
       </c>
       <c r="I126" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -7194,7 +7194,7 @@
         <v>128</v>
       </c>
       <c r="E127" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F127" t="s">
         <v>520</v>
@@ -7203,10 +7203,10 @@
         <v>791</v>
       </c>
       <c r="H127" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="I127" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -7220,7 +7220,7 @@
         <v>129</v>
       </c>
       <c r="E128" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F128" t="s">
         <v>521</v>
@@ -7229,10 +7229,10 @@
         <v>877</v>
       </c>
       <c r="H128" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="I128" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -7246,7 +7246,7 @@
         <v>130</v>
       </c>
       <c r="E129" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F129" t="s">
         <v>522</v>
@@ -7258,7 +7258,7 @@
         <v>1048</v>
       </c>
       <c r="I129" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -7272,7 +7272,7 @@
         <v>131</v>
       </c>
       <c r="E130" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F130" t="s">
         <v>523</v>
@@ -7284,7 +7284,7 @@
         <v>1048</v>
       </c>
       <c r="I130" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -7298,7 +7298,7 @@
         <v>132</v>
       </c>
       <c r="E131" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F131" t="s">
         <v>524</v>
@@ -7310,7 +7310,7 @@
         <v>1049</v>
       </c>
       <c r="I131" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -7324,7 +7324,7 @@
         <v>133</v>
       </c>
       <c r="E132" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F132" t="s">
         <v>525</v>
@@ -7336,7 +7336,7 @@
         <v>1049</v>
       </c>
       <c r="I132" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -7350,7 +7350,7 @@
         <v>134</v>
       </c>
       <c r="E133" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F133" t="s">
         <v>526</v>
@@ -7362,7 +7362,7 @@
         <v>1050</v>
       </c>
       <c r="I133" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -7376,7 +7376,7 @@
         <v>135</v>
       </c>
       <c r="E134" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F134" t="s">
         <v>527</v>
@@ -7388,7 +7388,7 @@
         <v>1051</v>
       </c>
       <c r="I134" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -7402,7 +7402,7 @@
         <v>136</v>
       </c>
       <c r="E135" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F135" t="s">
         <v>528</v>
@@ -7414,7 +7414,7 @@
         <v>1051</v>
       </c>
       <c r="I135" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -7428,7 +7428,7 @@
         <v>137</v>
       </c>
       <c r="E136" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F136" t="s">
         <v>529</v>
@@ -7440,7 +7440,7 @@
         <v>1051</v>
       </c>
       <c r="I136" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -7454,7 +7454,7 @@
         <v>138</v>
       </c>
       <c r="E137" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F137" t="s">
         <v>530</v>
@@ -7466,7 +7466,7 @@
         <v>1052</v>
       </c>
       <c r="I137" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -7480,7 +7480,7 @@
         <v>139</v>
       </c>
       <c r="E138" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F138" t="s">
         <v>531</v>
@@ -7492,7 +7492,7 @@
         <v>1052</v>
       </c>
       <c r="I138" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -7506,7 +7506,7 @@
         <v>140</v>
       </c>
       <c r="E139" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F139" t="s">
         <v>532</v>
@@ -7518,7 +7518,7 @@
         <v>1052</v>
       </c>
       <c r="I139" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -7532,7 +7532,7 @@
         <v>141</v>
       </c>
       <c r="E140" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F140" t="s">
         <v>533</v>
@@ -7544,7 +7544,7 @@
         <v>1053</v>
       </c>
       <c r="I140" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -7558,7 +7558,7 @@
         <v>142</v>
       </c>
       <c r="E141" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F141" t="s">
         <v>534</v>
@@ -7570,7 +7570,7 @@
         <v>1053</v>
       </c>
       <c r="I141" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -7584,7 +7584,7 @@
         <v>143</v>
       </c>
       <c r="E142" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F142" t="s">
         <v>535</v>
@@ -7596,7 +7596,7 @@
         <v>1054</v>
       </c>
       <c r="I142" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -7610,7 +7610,7 @@
         <v>144</v>
       </c>
       <c r="E143" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F143" t="s">
         <v>536</v>
@@ -7622,10 +7622,10 @@
         <v>1055</v>
       </c>
       <c r="I143" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J143" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -7639,7 +7639,7 @@
         <v>145</v>
       </c>
       <c r="E144" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F144" t="s">
         <v>537</v>
@@ -7651,10 +7651,10 @@
         <v>1055</v>
       </c>
       <c r="I144" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J144" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -7668,7 +7668,7 @@
         <v>146</v>
       </c>
       <c r="E145" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F145" t="s">
         <v>538</v>
@@ -7677,10 +7677,10 @@
         <v>791</v>
       </c>
       <c r="H145" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="I145" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -7694,7 +7694,7 @@
         <v>147</v>
       </c>
       <c r="E146" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F146" t="s">
         <v>539</v>
@@ -7703,10 +7703,10 @@
         <v>886</v>
       </c>
       <c r="H146" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="I146" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -7720,7 +7720,7 @@
         <v>148</v>
       </c>
       <c r="E147" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F147" t="s">
         <v>540</v>
@@ -7729,10 +7729,10 @@
         <v>801</v>
       </c>
       <c r="H147" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="I147" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -7746,7 +7746,7 @@
         <v>149</v>
       </c>
       <c r="E148" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F148" t="s">
         <v>541</v>
@@ -7755,10 +7755,10 @@
         <v>887</v>
       </c>
       <c r="H148" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="I148" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -7772,7 +7772,7 @@
         <v>150</v>
       </c>
       <c r="E149" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F149" t="s">
         <v>542</v>
@@ -7784,7 +7784,7 @@
         <v>1056</v>
       </c>
       <c r="I149" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -7798,7 +7798,7 @@
         <v>151</v>
       </c>
       <c r="E150" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F150" t="s">
         <v>543</v>
@@ -7810,7 +7810,7 @@
         <v>1056</v>
       </c>
       <c r="I150" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -7824,7 +7824,7 @@
         <v>152</v>
       </c>
       <c r="E151" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F151" t="s">
         <v>544</v>
@@ -7836,7 +7836,7 @@
         <v>1056</v>
       </c>
       <c r="I151" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -7850,7 +7850,7 @@
         <v>153</v>
       </c>
       <c r="E152" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F152" t="s">
         <v>545</v>
@@ -7859,10 +7859,10 @@
         <v>801</v>
       </c>
       <c r="H152" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I152" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -7876,7 +7876,7 @@
         <v>154</v>
       </c>
       <c r="E153" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F153" t="s">
         <v>546</v>
@@ -7885,10 +7885,10 @@
         <v>891</v>
       </c>
       <c r="H153" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="I153" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -7902,7 +7902,7 @@
         <v>155</v>
       </c>
       <c r="E154" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F154" t="s">
         <v>547</v>
@@ -7911,10 +7911,10 @@
         <v>797</v>
       </c>
       <c r="H154" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="I154" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -7928,7 +7928,7 @@
         <v>156</v>
       </c>
       <c r="E155" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F155" t="s">
         <v>548</v>
@@ -7940,7 +7940,7 @@
         <v>1057</v>
       </c>
       <c r="I155" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -7954,7 +7954,7 @@
         <v>157</v>
       </c>
       <c r="E156" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F156" t="s">
         <v>549</v>
@@ -7963,10 +7963,10 @@
         <v>814</v>
       </c>
       <c r="H156" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="I156" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -7980,7 +7980,7 @@
         <v>158</v>
       </c>
       <c r="E157" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F157" t="s">
         <v>550</v>
@@ -7989,10 +7989,10 @@
         <v>813</v>
       </c>
       <c r="H157" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="I157" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -8006,7 +8006,7 @@
         <v>159</v>
       </c>
       <c r="E158" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F158" t="s">
         <v>551</v>
@@ -8015,10 +8015,10 @@
         <v>797</v>
       </c>
       <c r="H158" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="I158" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -8032,7 +8032,7 @@
         <v>160</v>
       </c>
       <c r="E159" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F159" t="s">
         <v>552</v>
@@ -8041,10 +8041,10 @@
         <v>866</v>
       </c>
       <c r="H159" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="I159" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -8058,7 +8058,7 @@
         <v>161</v>
       </c>
       <c r="E160" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F160" t="s">
         <v>553</v>
@@ -8067,10 +8067,10 @@
         <v>893</v>
       </c>
       <c r="H160" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="I160" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
@@ -8084,7 +8084,7 @@
         <v>162</v>
       </c>
       <c r="E161" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F161" t="s">
         <v>554</v>
@@ -8093,10 +8093,10 @@
         <v>894</v>
       </c>
       <c r="H161" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="I161" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
@@ -8110,7 +8110,7 @@
         <v>163</v>
       </c>
       <c r="E162" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F162" t="s">
         <v>555</v>
@@ -8119,10 +8119,10 @@
         <v>895</v>
       </c>
       <c r="H162" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="I162" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
@@ -8136,7 +8136,7 @@
         <v>164</v>
       </c>
       <c r="E163" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F163" t="s">
         <v>556</v>
@@ -8148,7 +8148,7 @@
         <v>1059</v>
       </c>
       <c r="I163" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
@@ -8162,7 +8162,7 @@
         <v>165</v>
       </c>
       <c r="E164" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F164" t="s">
         <v>552</v>
@@ -8171,10 +8171,10 @@
         <v>897</v>
       </c>
       <c r="H164" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="I164" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
@@ -8188,7 +8188,7 @@
         <v>166</v>
       </c>
       <c r="E165" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F165" t="s">
         <v>557</v>
@@ -8200,7 +8200,7 @@
         <v>1060</v>
       </c>
       <c r="I165" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
@@ -8214,7 +8214,7 @@
         <v>167</v>
       </c>
       <c r="E166" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F166" t="s">
         <v>558</v>
@@ -8226,7 +8226,7 @@
         <v>1061</v>
       </c>
       <c r="I166" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
@@ -8240,7 +8240,7 @@
         <v>168</v>
       </c>
       <c r="E167" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F167" t="s">
         <v>553</v>
@@ -8249,28 +8249,28 @@
         <v>893</v>
       </c>
       <c r="H167" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="I167" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="K167" t="s">
         <v>1063</v>
       </c>
       <c r="L167" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="M167" t="s">
         <v>1062</v>
       </c>
       <c r="N167" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="O167" t="s">
         <v>1061</v>
       </c>
       <c r="P167" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
@@ -8284,7 +8284,7 @@
         <v>169</v>
       </c>
       <c r="E168" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F168" t="s">
         <v>559</v>
@@ -8296,7 +8296,7 @@
         <v>1060</v>
       </c>
       <c r="I168" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
@@ -8310,7 +8310,7 @@
         <v>170</v>
       </c>
       <c r="E169" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F169" t="s">
         <v>560</v>
@@ -8322,7 +8322,7 @@
         <v>1062</v>
       </c>
       <c r="I169" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
@@ -8336,7 +8336,7 @@
         <v>171</v>
       </c>
       <c r="E170" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F170" t="s">
         <v>561</v>
@@ -8348,7 +8348,7 @@
         <v>1061</v>
       </c>
       <c r="I170" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.25">
@@ -8362,7 +8362,7 @@
         <v>172</v>
       </c>
       <c r="E171" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F171" t="s">
         <v>562</v>
@@ -8374,7 +8374,7 @@
         <v>1060</v>
       </c>
       <c r="I171" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
@@ -8388,7 +8388,7 @@
         <v>173</v>
       </c>
       <c r="E172" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F172" t="s">
         <v>563</v>
@@ -8400,7 +8400,7 @@
         <v>1063</v>
       </c>
       <c r="I172" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
@@ -8414,7 +8414,7 @@
         <v>174</v>
       </c>
       <c r="E173" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F173" t="s">
         <v>564</v>
@@ -8426,7 +8426,7 @@
         <v>1062</v>
       </c>
       <c r="I173" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
@@ -8440,7 +8440,7 @@
         <v>175</v>
       </c>
       <c r="E174" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F174" t="s">
         <v>565</v>
@@ -8449,10 +8449,10 @@
         <v>905</v>
       </c>
       <c r="H174" t="s">
-        <v>1064</v>
+        <v>1159</v>
       </c>
       <c r="I174" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.25">
@@ -8466,7 +8466,7 @@
         <v>176</v>
       </c>
       <c r="E175" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F175" t="s">
         <v>566</v>
@@ -8478,7 +8478,7 @@
         <v>1063</v>
       </c>
       <c r="I175" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
@@ -8492,7 +8492,7 @@
         <v>177</v>
       </c>
       <c r="E176" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F176" t="s">
         <v>567</v>
@@ -8501,10 +8501,10 @@
         <v>907</v>
       </c>
       <c r="H176" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I176" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -8518,7 +8518,7 @@
         <v>178</v>
       </c>
       <c r="E177" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F177" t="s">
         <v>568</v>
@@ -8527,10 +8527,10 @@
         <v>908</v>
       </c>
       <c r="H177" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I177" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -8544,7 +8544,7 @@
         <v>179</v>
       </c>
       <c r="E178" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F178" t="s">
         <v>569</v>
@@ -8553,10 +8553,10 @@
         <v>909</v>
       </c>
       <c r="H178" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I178" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -8570,7 +8570,7 @@
         <v>180</v>
       </c>
       <c r="E179" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F179" t="s">
         <v>570</v>
@@ -8579,10 +8579,10 @@
         <v>805</v>
       </c>
       <c r="H179" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I179" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -8596,7 +8596,7 @@
         <v>181</v>
       </c>
       <c r="E180" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F180" t="s">
         <v>571</v>
@@ -8605,10 +8605,10 @@
         <v>815</v>
       </c>
       <c r="H180" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I180" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -8622,7 +8622,7 @@
         <v>182</v>
       </c>
       <c r="E181" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F181" t="s">
         <v>572</v>
@@ -8631,10 +8631,10 @@
         <v>847</v>
       </c>
       <c r="H181" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I181" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -8648,7 +8648,7 @@
         <v>183</v>
       </c>
       <c r="E182" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F182" t="s">
         <v>573</v>
@@ -8657,10 +8657,10 @@
         <v>847</v>
       </c>
       <c r="H182" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I182" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -8674,7 +8674,7 @@
         <v>184</v>
       </c>
       <c r="E183" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F183" t="s">
         <v>574</v>
@@ -8683,10 +8683,10 @@
         <v>910</v>
       </c>
       <c r="H183" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="I183" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -8700,7 +8700,7 @@
         <v>185</v>
       </c>
       <c r="E184" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F184" t="s">
         <v>575</v>
@@ -8709,10 +8709,10 @@
         <v>911</v>
       </c>
       <c r="H184" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="I184" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -8726,7 +8726,7 @@
         <v>186</v>
       </c>
       <c r="E185" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F185" t="s">
         <v>576</v>
@@ -8735,10 +8735,10 @@
         <v>912</v>
       </c>
       <c r="H185" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="I185" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -8752,7 +8752,7 @@
         <v>187</v>
       </c>
       <c r="E186" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F186" t="s">
         <v>577</v>
@@ -8761,10 +8761,10 @@
         <v>913</v>
       </c>
       <c r="H186" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="I186" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -8778,7 +8778,7 @@
         <v>188</v>
       </c>
       <c r="E187" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F187" t="s">
         <v>578</v>
@@ -8787,10 +8787,10 @@
         <v>914</v>
       </c>
       <c r="H187" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="I187" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -8804,7 +8804,7 @@
         <v>189</v>
       </c>
       <c r="E188" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F188" t="s">
         <v>579</v>
@@ -8813,10 +8813,10 @@
         <v>915</v>
       </c>
       <c r="H188" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I188" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -8830,7 +8830,7 @@
         <v>190</v>
       </c>
       <c r="E189" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F189" t="s">
         <v>580</v>
@@ -8839,10 +8839,10 @@
         <v>916</v>
       </c>
       <c r="H189" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I189" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -8856,7 +8856,7 @@
         <v>191</v>
       </c>
       <c r="E190" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F190" t="s">
         <v>581</v>
@@ -8865,10 +8865,10 @@
         <v>917</v>
       </c>
       <c r="H190" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I190" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -8882,7 +8882,7 @@
         <v>192</v>
       </c>
       <c r="E191" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F191" t="s">
         <v>582</v>
@@ -8891,10 +8891,10 @@
         <v>918</v>
       </c>
       <c r="H191" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I191" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -8908,7 +8908,7 @@
         <v>193</v>
       </c>
       <c r="E192" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F192" t="s">
         <v>583</v>
@@ -8917,10 +8917,10 @@
         <v>919</v>
       </c>
       <c r="H192" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I192" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -8934,7 +8934,7 @@
         <v>194</v>
       </c>
       <c r="E193" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F193" t="s">
         <v>584</v>
@@ -8943,10 +8943,10 @@
         <v>847</v>
       </c>
       <c r="H193" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I193" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -8960,7 +8960,7 @@
         <v>195</v>
       </c>
       <c r="E194" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F194" t="s">
         <v>585</v>
@@ -8969,13 +8969,13 @@
         <v>920</v>
       </c>
       <c r="H194" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I194" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J194" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -8989,7 +8989,7 @@
         <v>196</v>
       </c>
       <c r="E195" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F195" t="s">
         <v>586</v>
@@ -8998,13 +8998,13 @@
         <v>921</v>
       </c>
       <c r="H195" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I195" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J195" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -9018,7 +9018,7 @@
         <v>197</v>
       </c>
       <c r="E196" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F196" t="s">
         <v>587</v>
@@ -9027,13 +9027,13 @@
         <v>922</v>
       </c>
       <c r="H196" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I196" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J196" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -9047,7 +9047,7 @@
         <v>198</v>
       </c>
       <c r="E197" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F197" t="s">
         <v>588</v>
@@ -9056,13 +9056,13 @@
         <v>923</v>
       </c>
       <c r="H197" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I197" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J197" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -9076,7 +9076,7 @@
         <v>199</v>
       </c>
       <c r="E198" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F198" t="s">
         <v>589</v>
@@ -9085,13 +9085,13 @@
         <v>924</v>
       </c>
       <c r="H198" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I198" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J198" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
@@ -9105,7 +9105,7 @@
         <v>200</v>
       </c>
       <c r="E199" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F199" t="s">
         <v>590</v>
@@ -9114,10 +9114,10 @@
         <v>925</v>
       </c>
       <c r="H199" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I199" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -9131,7 +9131,7 @@
         <v>201</v>
       </c>
       <c r="E200" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F200" t="s">
         <v>591</v>
@@ -9140,10 +9140,10 @@
         <v>926</v>
       </c>
       <c r="H200" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I200" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -9157,7 +9157,7 @@
         <v>202</v>
       </c>
       <c r="E201" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F201" t="s">
         <v>592</v>
@@ -9166,10 +9166,10 @@
         <v>791</v>
       </c>
       <c r="H201" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I201" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -9183,7 +9183,7 @@
         <v>203</v>
       </c>
       <c r="E202" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F202" t="s">
         <v>593</v>
@@ -9192,10 +9192,10 @@
         <v>797</v>
       </c>
       <c r="H202" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I202" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -9209,7 +9209,7 @@
         <v>204</v>
       </c>
       <c r="E203" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F203" t="s">
         <v>594</v>
@@ -9218,10 +9218,10 @@
         <v>791</v>
       </c>
       <c r="H203" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I203" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -9235,7 +9235,7 @@
         <v>205</v>
       </c>
       <c r="E204" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F204" t="s">
         <v>595</v>
@@ -9244,10 +9244,10 @@
         <v>927</v>
       </c>
       <c r="H204" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I204" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -9261,7 +9261,7 @@
         <v>206</v>
       </c>
       <c r="E205" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F205" t="s">
         <v>596</v>
@@ -9270,10 +9270,10 @@
         <v>928</v>
       </c>
       <c r="H205" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I205" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -9287,7 +9287,7 @@
         <v>207</v>
       </c>
       <c r="E206" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F206" t="s">
         <v>597</v>
@@ -9296,13 +9296,13 @@
         <v>929</v>
       </c>
       <c r="H206" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I206" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J206" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -9316,7 +9316,7 @@
         <v>208</v>
       </c>
       <c r="E207" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F207" t="s">
         <v>598</v>
@@ -9325,10 +9325,10 @@
         <v>787</v>
       </c>
       <c r="H207" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I207" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -9342,7 +9342,7 @@
         <v>209</v>
       </c>
       <c r="E208" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F208" t="s">
         <v>599</v>
@@ -9351,13 +9351,13 @@
         <v>927</v>
       </c>
       <c r="H208" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I208" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J208" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
@@ -9371,7 +9371,7 @@
         <v>210</v>
       </c>
       <c r="E209" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F209" t="s">
         <v>600</v>
@@ -9380,10 +9380,10 @@
         <v>930</v>
       </c>
       <c r="H209" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I209" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
@@ -9397,7 +9397,7 @@
         <v>211</v>
       </c>
       <c r="E210" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F210" t="s">
         <v>601</v>
@@ -9406,10 +9406,10 @@
         <v>931</v>
       </c>
       <c r="H210" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I210" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -9423,7 +9423,7 @@
         <v>212</v>
       </c>
       <c r="E211" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F211" t="s">
         <v>602</v>
@@ -9432,10 +9432,10 @@
         <v>791</v>
       </c>
       <c r="H211" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I211" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
@@ -9449,7 +9449,7 @@
         <v>213</v>
       </c>
       <c r="E212" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F212" t="s">
         <v>603</v>
@@ -9458,10 +9458,10 @@
         <v>801</v>
       </c>
       <c r="H212" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I212" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
@@ -9475,7 +9475,7 @@
         <v>214</v>
       </c>
       <c r="E213" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F213" t="s">
         <v>604</v>
@@ -9484,10 +9484,10 @@
         <v>932</v>
       </c>
       <c r="H213" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I213" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
@@ -9501,7 +9501,7 @@
         <v>215</v>
       </c>
       <c r="E214" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F214" t="s">
         <v>605</v>
@@ -9510,10 +9510,10 @@
         <v>809</v>
       </c>
       <c r="H214" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I214" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
@@ -9527,7 +9527,7 @@
         <v>216</v>
       </c>
       <c r="E215" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F215" t="s">
         <v>606</v>
@@ -9536,10 +9536,10 @@
         <v>933</v>
       </c>
       <c r="H215" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I215" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -9553,7 +9553,7 @@
         <v>217</v>
       </c>
       <c r="E216" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F216" t="s">
         <v>607</v>
@@ -9562,10 +9562,10 @@
         <v>934</v>
       </c>
       <c r="H216" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I216" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
@@ -9579,7 +9579,7 @@
         <v>218</v>
       </c>
       <c r="E217" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F217" t="s">
         <v>608</v>
@@ -9588,10 +9588,10 @@
         <v>935</v>
       </c>
       <c r="H217" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I217" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
@@ -9605,7 +9605,7 @@
         <v>219</v>
       </c>
       <c r="E218" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F218" t="s">
         <v>609</v>
@@ -9614,13 +9614,13 @@
         <v>936</v>
       </c>
       <c r="H218" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I218" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J218" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
@@ -9634,7 +9634,7 @@
         <v>220</v>
       </c>
       <c r="E219" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F219" t="s">
         <v>610</v>
@@ -9643,13 +9643,13 @@
         <v>903</v>
       </c>
       <c r="H219" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I219" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J219" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
@@ -9663,7 +9663,7 @@
         <v>221</v>
       </c>
       <c r="E220" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F220" t="s">
         <v>611</v>
@@ -9672,10 +9672,10 @@
         <v>937</v>
       </c>
       <c r="H220" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I220" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
@@ -9689,7 +9689,7 @@
         <v>222</v>
       </c>
       <c r="E221" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F221" t="s">
         <v>612</v>
@@ -9698,10 +9698,10 @@
         <v>938</v>
       </c>
       <c r="H221" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I221" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -9715,7 +9715,7 @@
         <v>223</v>
       </c>
       <c r="E222" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F222" t="s">
         <v>613</v>
@@ -9724,10 +9724,10 @@
         <v>791</v>
       </c>
       <c r="H222" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="I222" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -9741,7 +9741,7 @@
         <v>224</v>
       </c>
       <c r="E223" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F223" t="s">
         <v>614</v>
@@ -9753,10 +9753,10 @@
         <v>1018</v>
       </c>
       <c r="I223" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J223" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
@@ -9770,7 +9770,7 @@
         <v>225</v>
       </c>
       <c r="E224" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F224" t="s">
         <v>615</v>
@@ -9782,10 +9782,10 @@
         <v>1018</v>
       </c>
       <c r="I224" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J224" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -9799,7 +9799,7 @@
         <v>226</v>
       </c>
       <c r="E225" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F225" t="s">
         <v>616</v>
@@ -9808,10 +9808,10 @@
         <v>788</v>
       </c>
       <c r="H225" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I225" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -9825,7 +9825,7 @@
         <v>227</v>
       </c>
       <c r="E226" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F226" t="s">
         <v>617</v>
@@ -9834,10 +9834,10 @@
         <v>791</v>
       </c>
       <c r="H226" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I226" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -9851,7 +9851,7 @@
         <v>228</v>
       </c>
       <c r="E227" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F227" t="s">
         <v>618</v>
@@ -9860,10 +9860,10 @@
         <v>801</v>
       </c>
       <c r="H227" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I227" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -9877,7 +9877,7 @@
         <v>229</v>
       </c>
       <c r="E228" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F228" t="s">
         <v>619</v>
@@ -9886,10 +9886,10 @@
         <v>791</v>
       </c>
       <c r="H228" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I228" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -9903,7 +9903,7 @@
         <v>230</v>
       </c>
       <c r="E229" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F229" t="s">
         <v>620</v>
@@ -9912,10 +9912,10 @@
         <v>939</v>
       </c>
       <c r="H229" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I229" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -9929,7 +9929,7 @@
         <v>231</v>
       </c>
       <c r="E230" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F230" t="s">
         <v>621</v>
@@ -9938,10 +9938,10 @@
         <v>791</v>
       </c>
       <c r="H230" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="I230" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -9955,7 +9955,7 @@
         <v>232</v>
       </c>
       <c r="E231" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F231" t="s">
         <v>622</v>
@@ -9964,10 +9964,10 @@
         <v>940</v>
       </c>
       <c r="H231" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="I231" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -9981,7 +9981,7 @@
         <v>233</v>
       </c>
       <c r="E232" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F232" t="s">
         <v>623</v>
@@ -9990,10 +9990,10 @@
         <v>791</v>
       </c>
       <c r="H232" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="I232" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -10007,7 +10007,7 @@
         <v>234</v>
       </c>
       <c r="E233" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F233" t="s">
         <v>624</v>
@@ -10016,10 +10016,10 @@
         <v>941</v>
       </c>
       <c r="H233" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I233" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -10033,7 +10033,7 @@
         <v>235</v>
       </c>
       <c r="E234" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F234" t="s">
         <v>625</v>
@@ -10045,7 +10045,7 @@
         <v>1023</v>
       </c>
       <c r="I234" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -10059,7 +10059,7 @@
         <v>236</v>
       </c>
       <c r="E235" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F235" t="s">
         <v>626</v>
@@ -10068,10 +10068,10 @@
         <v>943</v>
       </c>
       <c r="H235" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I235" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -10085,7 +10085,7 @@
         <v>237</v>
       </c>
       <c r="E236" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F236" t="s">
         <v>627</v>
@@ -10094,10 +10094,10 @@
         <v>797</v>
       </c>
       <c r="H236" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="I236" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -10111,7 +10111,7 @@
         <v>238</v>
       </c>
       <c r="E237" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F237" t="s">
         <v>628</v>
@@ -10120,10 +10120,10 @@
         <v>944</v>
       </c>
       <c r="H237" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="I237" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -10137,7 +10137,7 @@
         <v>239</v>
       </c>
       <c r="E238" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F238" t="s">
         <v>629</v>
@@ -10146,10 +10146,10 @@
         <v>788</v>
       </c>
       <c r="H238" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="I238" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -10163,7 +10163,7 @@
         <v>240</v>
       </c>
       <c r="E239" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F239" t="s">
         <v>630</v>
@@ -10172,10 +10172,10 @@
         <v>945</v>
       </c>
       <c r="H239" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="I239" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -10189,7 +10189,7 @@
         <v>241</v>
       </c>
       <c r="E240" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F240" t="s">
         <v>631</v>
@@ -10198,10 +10198,10 @@
         <v>835</v>
       </c>
       <c r="H240" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I240" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -10215,7 +10215,7 @@
         <v>242</v>
       </c>
       <c r="E241" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F241" t="s">
         <v>632</v>
@@ -10224,10 +10224,10 @@
         <v>805</v>
       </c>
       <c r="H241" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I241" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -10241,7 +10241,7 @@
         <v>243</v>
       </c>
       <c r="E242" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F242" t="s">
         <v>633</v>
@@ -10250,10 +10250,10 @@
         <v>788</v>
       </c>
       <c r="H242" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I242" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -10267,7 +10267,7 @@
         <v>244</v>
       </c>
       <c r="E243" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F243" t="s">
         <v>634</v>
@@ -10279,7 +10279,7 @@
         <v>1023</v>
       </c>
       <c r="I243" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -10293,7 +10293,7 @@
         <v>245</v>
       </c>
       <c r="E244" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F244" t="s">
         <v>635</v>
@@ -10302,10 +10302,10 @@
         <v>947</v>
       </c>
       <c r="H244" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I244" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -10319,7 +10319,7 @@
         <v>246</v>
       </c>
       <c r="E245" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F245" t="s">
         <v>636</v>
@@ -10328,10 +10328,10 @@
         <v>948</v>
       </c>
       <c r="H245" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I245" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -10345,7 +10345,7 @@
         <v>247</v>
       </c>
       <c r="E246" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F246" t="s">
         <v>637</v>
@@ -10354,10 +10354,10 @@
         <v>949</v>
       </c>
       <c r="H246" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I246" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -10371,7 +10371,7 @@
         <v>248</v>
       </c>
       <c r="E247" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F247" t="s">
         <v>638</v>
@@ -10380,10 +10380,10 @@
         <v>941</v>
       </c>
       <c r="H247" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I247" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -10397,7 +10397,7 @@
         <v>249</v>
       </c>
       <c r="E248" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F248" t="s">
         <v>639</v>
@@ -10406,10 +10406,10 @@
         <v>950</v>
       </c>
       <c r="H248" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="I248" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -10423,7 +10423,7 @@
         <v>250</v>
       </c>
       <c r="E249" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F249" t="s">
         <v>640</v>
@@ -10432,10 +10432,10 @@
         <v>951</v>
       </c>
       <c r="H249" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="I249" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -10449,7 +10449,7 @@
         <v>251</v>
       </c>
       <c r="E250" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F250" t="s">
         <v>641</v>
@@ -10458,10 +10458,10 @@
         <v>952</v>
       </c>
       <c r="H250" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I250" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -10475,7 +10475,7 @@
         <v>252</v>
       </c>
       <c r="E251" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F251" t="s">
         <v>642</v>
@@ -10484,10 +10484,10 @@
         <v>791</v>
       </c>
       <c r="H251" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I251" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -10501,7 +10501,7 @@
         <v>253</v>
       </c>
       <c r="E252" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F252" t="s">
         <v>643</v>
@@ -10510,10 +10510,10 @@
         <v>953</v>
       </c>
       <c r="H252" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I252" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -10527,7 +10527,7 @@
         <v>254</v>
       </c>
       <c r="E253" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F253" t="s">
         <v>644</v>
@@ -10536,10 +10536,10 @@
         <v>954</v>
       </c>
       <c r="H253" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I253" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -10553,7 +10553,7 @@
         <v>255</v>
       </c>
       <c r="E254" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F254" t="s">
         <v>645</v>
@@ -10562,10 +10562,10 @@
         <v>941</v>
       </c>
       <c r="H254" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I254" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -10579,7 +10579,7 @@
         <v>256</v>
       </c>
       <c r="E255" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F255" t="s">
         <v>646</v>
@@ -10588,10 +10588,10 @@
         <v>955</v>
       </c>
       <c r="H255" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I255" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -10605,7 +10605,7 @@
         <v>257</v>
       </c>
       <c r="E256" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F256" t="s">
         <v>647</v>
@@ -10614,10 +10614,10 @@
         <v>956</v>
       </c>
       <c r="H256" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I256" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -10631,7 +10631,7 @@
         <v>258</v>
       </c>
       <c r="E257" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F257" t="s">
         <v>648</v>
@@ -10640,10 +10640,10 @@
         <v>957</v>
       </c>
       <c r="H257" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="I257" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -10657,7 +10657,7 @@
         <v>259</v>
       </c>
       <c r="E258" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F258" t="s">
         <v>649</v>
@@ -10666,10 +10666,10 @@
         <v>958</v>
       </c>
       <c r="H258" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="I258" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -10683,7 +10683,7 @@
         <v>260</v>
       </c>
       <c r="E259" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F259" t="s">
         <v>650</v>
@@ -10692,10 +10692,10 @@
         <v>959</v>
       </c>
       <c r="H259" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="I259" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -10709,7 +10709,7 @@
         <v>261</v>
       </c>
       <c r="E260" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F260" t="s">
         <v>651</v>
@@ -10718,10 +10718,10 @@
         <v>819</v>
       </c>
       <c r="H260" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I260" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -10735,7 +10735,7 @@
         <v>262</v>
       </c>
       <c r="E261" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F261" t="s">
         <v>652</v>
@@ -10744,10 +10744,10 @@
         <v>866</v>
       </c>
       <c r="H261" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I261" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -10761,7 +10761,7 @@
         <v>263</v>
       </c>
       <c r="E262" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F262" t="s">
         <v>653</v>
@@ -10770,10 +10770,10 @@
         <v>800</v>
       </c>
       <c r="H262" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I262" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -10787,7 +10787,7 @@
         <v>264</v>
       </c>
       <c r="E263" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F263" t="s">
         <v>654</v>
@@ -10796,10 +10796,10 @@
         <v>948</v>
       </c>
       <c r="H263" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I263" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -10813,7 +10813,7 @@
         <v>265</v>
       </c>
       <c r="E264" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F264" t="s">
         <v>655</v>
@@ -10822,10 +10822,10 @@
         <v>960</v>
       </c>
       <c r="H264" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I264" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -10839,7 +10839,7 @@
         <v>266</v>
       </c>
       <c r="E265" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F265" t="s">
         <v>656</v>
@@ -10848,10 +10848,10 @@
         <v>961</v>
       </c>
       <c r="H265" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I265" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -10865,7 +10865,7 @@
         <v>267</v>
       </c>
       <c r="E266" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F266" t="s">
         <v>657</v>
@@ -10874,10 +10874,10 @@
         <v>962</v>
       </c>
       <c r="H266" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I266" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -10891,7 +10891,7 @@
         <v>268</v>
       </c>
       <c r="E267" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F267" t="s">
         <v>658</v>
@@ -10900,10 +10900,10 @@
         <v>963</v>
       </c>
       <c r="H267" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I267" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -10917,7 +10917,7 @@
         <v>269</v>
       </c>
       <c r="E268" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F268" t="s">
         <v>659</v>
@@ -10926,10 +10926,10 @@
         <v>964</v>
       </c>
       <c r="H268" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I268" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -10943,7 +10943,7 @@
         <v>270</v>
       </c>
       <c r="E269" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F269" t="s">
         <v>660</v>
@@ -10952,10 +10952,10 @@
         <v>804</v>
       </c>
       <c r="H269" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I269" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -10969,7 +10969,7 @@
         <v>271</v>
       </c>
       <c r="E270" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F270" t="s">
         <v>661</v>
@@ -10978,10 +10978,10 @@
         <v>965</v>
       </c>
       <c r="H270" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I270" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -10995,7 +10995,7 @@
         <v>272</v>
       </c>
       <c r="E271" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F271" t="s">
         <v>662</v>
@@ -11004,10 +11004,10 @@
         <v>791</v>
       </c>
       <c r="H271" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="I271" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -11021,7 +11021,7 @@
         <v>273</v>
       </c>
       <c r="E272" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F272" t="s">
         <v>663</v>
@@ -11030,10 +11030,10 @@
         <v>797</v>
       </c>
       <c r="H272" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I272" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -11047,7 +11047,7 @@
         <v>274</v>
       </c>
       <c r="E273" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F273" t="s">
         <v>664</v>
@@ -11056,10 +11056,10 @@
         <v>966</v>
       </c>
       <c r="H273" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I273" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -11073,7 +11073,7 @@
         <v>275</v>
       </c>
       <c r="E274" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F274" t="s">
         <v>665</v>
@@ -11082,10 +11082,10 @@
         <v>967</v>
       </c>
       <c r="H274" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I274" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -11099,7 +11099,7 @@
         <v>276</v>
       </c>
       <c r="E275" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F275" t="s">
         <v>666</v>
@@ -11108,10 +11108,10 @@
         <v>791</v>
       </c>
       <c r="H275" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I275" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -11125,7 +11125,7 @@
         <v>277</v>
       </c>
       <c r="E276" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F276" t="s">
         <v>667</v>
@@ -11134,10 +11134,10 @@
         <v>797</v>
       </c>
       <c r="H276" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I276" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -11151,7 +11151,7 @@
         <v>278</v>
       </c>
       <c r="E277" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F277" t="s">
         <v>668</v>
@@ -11160,10 +11160,10 @@
         <v>890</v>
       </c>
       <c r="H277" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I277" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -11177,7 +11177,7 @@
         <v>279</v>
       </c>
       <c r="E278" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F278" t="s">
         <v>669</v>
@@ -11186,10 +11186,10 @@
         <v>802</v>
       </c>
       <c r="H278" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I278" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -11203,7 +11203,7 @@
         <v>280</v>
       </c>
       <c r="E279" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F279" t="s">
         <v>670</v>
@@ -11212,10 +11212,10 @@
         <v>788</v>
       </c>
       <c r="H279" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I279" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -11229,7 +11229,7 @@
         <v>281</v>
       </c>
       <c r="E280" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F280" t="s">
         <v>671</v>
@@ -11241,7 +11241,7 @@
         <v>1058</v>
       </c>
       <c r="I280" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -11255,7 +11255,7 @@
         <v>282</v>
       </c>
       <c r="E281" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F281" t="s">
         <v>672</v>
@@ -11264,10 +11264,10 @@
         <v>840</v>
       </c>
       <c r="H281" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="I281" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
@@ -11281,7 +11281,7 @@
         <v>283</v>
       </c>
       <c r="E282" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F282" t="s">
         <v>673</v>
@@ -11290,10 +11290,10 @@
         <v>791</v>
       </c>
       <c r="H282" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I282" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -11307,7 +11307,7 @@
         <v>284</v>
       </c>
       <c r="E283" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F283" t="s">
         <v>674</v>
@@ -11316,10 +11316,10 @@
         <v>968</v>
       </c>
       <c r="H283" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I283" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -11333,7 +11333,7 @@
         <v>285</v>
       </c>
       <c r="E284" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F284" t="s">
         <v>675</v>
@@ -11342,10 +11342,10 @@
         <v>969</v>
       </c>
       <c r="H284" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="I284" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
@@ -11359,7 +11359,7 @@
         <v>286</v>
       </c>
       <c r="E285" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F285" t="s">
         <v>676</v>
@@ -11368,10 +11368,10 @@
         <v>941</v>
       </c>
       <c r="H285" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="I285" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -11385,7 +11385,7 @@
         <v>287</v>
       </c>
       <c r="E286" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F286" t="s">
         <v>677</v>
@@ -11394,10 +11394,10 @@
         <v>970</v>
       </c>
       <c r="H286" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="I286" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -11411,7 +11411,7 @@
         <v>288</v>
       </c>
       <c r="E287" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F287" t="s">
         <v>678</v>
@@ -11420,10 +11420,10 @@
         <v>971</v>
       </c>
       <c r="H287" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I287" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -11437,7 +11437,7 @@
         <v>289</v>
       </c>
       <c r="E288" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F288" t="s">
         <v>679</v>
@@ -11446,10 +11446,10 @@
         <v>784</v>
       </c>
       <c r="H288" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I288" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
@@ -11463,7 +11463,7 @@
         <v>290</v>
       </c>
       <c r="E289" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F289" t="s">
         <v>680</v>
@@ -11472,10 +11472,10 @@
         <v>797</v>
       </c>
       <c r="H289" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I289" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -11489,7 +11489,7 @@
         <v>291</v>
       </c>
       <c r="E290" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F290" t="s">
         <v>681</v>
@@ -11498,10 +11498,10 @@
         <v>953</v>
       </c>
       <c r="H290" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="I290" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -11515,7 +11515,7 @@
         <v>292</v>
       </c>
       <c r="E291" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F291" t="s">
         <v>682</v>
@@ -11524,10 +11524,10 @@
         <v>788</v>
       </c>
       <c r="H291" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="I291" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -11541,7 +11541,7 @@
         <v>293</v>
       </c>
       <c r="E292" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F292" t="s">
         <v>683</v>
@@ -11550,10 +11550,10 @@
         <v>940</v>
       </c>
       <c r="H292" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I292" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -11570,7 +11570,7 @@
         <v>294</v>
       </c>
       <c r="E293" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F293" t="s">
         <v>684</v>
@@ -11579,10 +11579,10 @@
         <v>831</v>
       </c>
       <c r="H293" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I293" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -11596,7 +11596,7 @@
         <v>295</v>
       </c>
       <c r="E294" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F294" t="s">
         <v>685</v>
@@ -11605,10 +11605,10 @@
         <v>972</v>
       </c>
       <c r="H294" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I294" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -11622,7 +11622,7 @@
         <v>296</v>
       </c>
       <c r="E295" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F295" t="s">
         <v>686</v>
@@ -11631,10 +11631,10 @@
         <v>834</v>
       </c>
       <c r="H295" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I295" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -11648,7 +11648,7 @@
         <v>297</v>
       </c>
       <c r="E296" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F296" t="s">
         <v>687</v>
@@ -11657,10 +11657,10 @@
         <v>973</v>
       </c>
       <c r="H296" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="I296" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -11674,7 +11674,7 @@
         <v>298</v>
       </c>
       <c r="E297" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F297" t="s">
         <v>688</v>
@@ -11683,10 +11683,10 @@
         <v>974</v>
       </c>
       <c r="H297" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="I297" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -11700,7 +11700,7 @@
         <v>299</v>
       </c>
       <c r="E298" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F298" t="s">
         <v>689</v>
@@ -11709,10 +11709,10 @@
         <v>975</v>
       </c>
       <c r="H298" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I298" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -11726,7 +11726,7 @@
         <v>300</v>
       </c>
       <c r="E299" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F299" t="s">
         <v>690</v>
@@ -11735,10 +11735,10 @@
         <v>976</v>
       </c>
       <c r="H299" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I299" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
@@ -11752,7 +11752,7 @@
         <v>301</v>
       </c>
       <c r="E300" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F300" t="s">
         <v>691</v>
@@ -11761,10 +11761,10 @@
         <v>977</v>
       </c>
       <c r="H300" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I300" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
@@ -11778,7 +11778,7 @@
         <v>302</v>
       </c>
       <c r="E301" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F301" t="s">
         <v>692</v>
@@ -11787,10 +11787,10 @@
         <v>791</v>
       </c>
       <c r="H301" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I301" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -11804,7 +11804,7 @@
         <v>303</v>
       </c>
       <c r="E302" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F302" t="s">
         <v>693</v>
@@ -11813,10 +11813,10 @@
         <v>882</v>
       </c>
       <c r="H302" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I302" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -11833,7 +11833,7 @@
         <v>304</v>
       </c>
       <c r="E303" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F303" t="s">
         <v>694</v>
@@ -11842,10 +11842,10 @@
         <v>797</v>
       </c>
       <c r="H303" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I303" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
@@ -11859,7 +11859,7 @@
         <v>305</v>
       </c>
       <c r="E304" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F304" t="s">
         <v>695</v>
@@ -11868,10 +11868,10 @@
         <v>797</v>
       </c>
       <c r="H304" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I304" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -11885,7 +11885,7 @@
         <v>306</v>
       </c>
       <c r="E305" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F305" t="s">
         <v>696</v>
@@ -11894,10 +11894,10 @@
         <v>791</v>
       </c>
       <c r="H305" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I305" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -11911,7 +11911,7 @@
         <v>307</v>
       </c>
       <c r="E306" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F306" t="s">
         <v>697</v>
@@ -11920,10 +11920,10 @@
         <v>978</v>
       </c>
       <c r="H306" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I306" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
@@ -11937,7 +11937,7 @@
         <v>308</v>
       </c>
       <c r="E307" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F307" t="s">
         <v>698</v>
@@ -11946,10 +11946,10 @@
         <v>979</v>
       </c>
       <c r="H307" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I307" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -11963,7 +11963,7 @@
         <v>309</v>
       </c>
       <c r="E308" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F308" t="s">
         <v>699</v>
@@ -11972,10 +11972,10 @@
         <v>980</v>
       </c>
       <c r="H308" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I308" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -11989,7 +11989,7 @@
         <v>310</v>
       </c>
       <c r="E309" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F309" t="s">
         <v>700</v>
@@ -11998,10 +11998,10 @@
         <v>804</v>
       </c>
       <c r="H309" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I309" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -12015,7 +12015,7 @@
         <v>311</v>
       </c>
       <c r="E310" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F310" t="s">
         <v>701</v>
@@ -12024,10 +12024,10 @@
         <v>981</v>
       </c>
       <c r="H310" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I310" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -12041,7 +12041,7 @@
         <v>312</v>
       </c>
       <c r="E311" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F311" t="s">
         <v>702</v>
@@ -12050,10 +12050,10 @@
         <v>801</v>
       </c>
       <c r="H311" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I311" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -12067,7 +12067,7 @@
         <v>313</v>
       </c>
       <c r="E312" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F312" t="s">
         <v>703</v>
@@ -12076,10 +12076,10 @@
         <v>791</v>
       </c>
       <c r="H312" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I312" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
@@ -12093,7 +12093,7 @@
         <v>314</v>
       </c>
       <c r="E313" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F313" t="s">
         <v>704</v>
@@ -12102,10 +12102,10 @@
         <v>791</v>
       </c>
       <c r="H313" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I313" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
@@ -12119,7 +12119,7 @@
         <v>315</v>
       </c>
       <c r="E314" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F314" t="s">
         <v>705</v>
@@ -12128,10 +12128,10 @@
         <v>941</v>
       </c>
       <c r="H314" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I314" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
@@ -12145,7 +12145,7 @@
         <v>316</v>
       </c>
       <c r="E315" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F315" t="s">
         <v>706</v>
@@ -12154,10 +12154,10 @@
         <v>791</v>
       </c>
       <c r="H315" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I315" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -12171,7 +12171,7 @@
         <v>317</v>
       </c>
       <c r="E316" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F316" t="s">
         <v>704</v>
@@ -12180,10 +12180,10 @@
         <v>791</v>
       </c>
       <c r="H316" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I316" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -12200,7 +12200,7 @@
         <v>318</v>
       </c>
       <c r="E317" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F317" t="s">
         <v>707</v>
@@ -12209,10 +12209,10 @@
         <v>982</v>
       </c>
       <c r="H317" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I317" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -12229,7 +12229,7 @@
         <v>319</v>
       </c>
       <c r="E318" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F318" t="s">
         <v>708</v>
@@ -12238,10 +12238,10 @@
         <v>983</v>
       </c>
       <c r="H318" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I318" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
@@ -12258,7 +12258,7 @@
         <v>320</v>
       </c>
       <c r="E319" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F319" t="s">
         <v>709</v>
@@ -12267,10 +12267,10 @@
         <v>984</v>
       </c>
       <c r="H319" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I319" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -12284,7 +12284,7 @@
         <v>321</v>
       </c>
       <c r="E320" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F320" t="s">
         <v>710</v>
@@ -12293,10 +12293,10 @@
         <v>985</v>
       </c>
       <c r="H320" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I320" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
@@ -12310,7 +12310,7 @@
         <v>322</v>
       </c>
       <c r="E321" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F321" t="s">
         <v>711</v>
@@ -12319,10 +12319,10 @@
         <v>791</v>
       </c>
       <c r="H321" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I321" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
@@ -12336,7 +12336,7 @@
         <v>323</v>
       </c>
       <c r="E322" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F322" t="s">
         <v>712</v>
@@ -12345,10 +12345,10 @@
         <v>986</v>
       </c>
       <c r="H322" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I322" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
@@ -12362,7 +12362,7 @@
         <v>324</v>
       </c>
       <c r="E323" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F323" t="s">
         <v>713</v>
@@ -12371,10 +12371,10 @@
         <v>847</v>
       </c>
       <c r="H323" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I323" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -12388,7 +12388,7 @@
         <v>325</v>
       </c>
       <c r="E324" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F324" t="s">
         <v>714</v>
@@ -12397,10 +12397,10 @@
         <v>987</v>
       </c>
       <c r="H324" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I324" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
@@ -12414,7 +12414,7 @@
         <v>326</v>
       </c>
       <c r="E325" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F325" t="s">
         <v>715</v>
@@ -12423,10 +12423,10 @@
         <v>988</v>
       </c>
       <c r="H325" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I325" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
@@ -12440,7 +12440,7 @@
         <v>327</v>
       </c>
       <c r="E326" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F326" t="s">
         <v>716</v>
@@ -12449,10 +12449,10 @@
         <v>850</v>
       </c>
       <c r="H326" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I326" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
@@ -12466,7 +12466,7 @@
         <v>328</v>
       </c>
       <c r="E327" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F327" t="s">
         <v>717</v>
@@ -12475,10 +12475,10 @@
         <v>989</v>
       </c>
       <c r="H327" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I327" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
@@ -12492,7 +12492,7 @@
         <v>329</v>
       </c>
       <c r="E328" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F328" t="s">
         <v>718</v>
@@ -12501,10 +12501,10 @@
         <v>847</v>
       </c>
       <c r="H328" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I328" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
@@ -12518,7 +12518,7 @@
         <v>330</v>
       </c>
       <c r="E329" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F329" t="s">
         <v>719</v>
@@ -12527,10 +12527,10 @@
         <v>847</v>
       </c>
       <c r="H329" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I329" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
@@ -12544,7 +12544,7 @@
         <v>331</v>
       </c>
       <c r="E330" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F330" t="s">
         <v>720</v>
@@ -12553,10 +12553,10 @@
         <v>990</v>
       </c>
       <c r="H330" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I330" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
@@ -12570,7 +12570,7 @@
         <v>332</v>
       </c>
       <c r="E331" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F331" t="s">
         <v>721</v>
@@ -12579,10 +12579,10 @@
         <v>991</v>
       </c>
       <c r="H331" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I331" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
@@ -12596,7 +12596,7 @@
         <v>333</v>
       </c>
       <c r="E332" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F332" t="s">
         <v>722</v>
@@ -12605,10 +12605,10 @@
         <v>992</v>
       </c>
       <c r="H332" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I332" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
@@ -12622,7 +12622,7 @@
         <v>334</v>
       </c>
       <c r="E333" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F333" t="s">
         <v>723</v>
@@ -12631,10 +12631,10 @@
         <v>993</v>
       </c>
       <c r="H333" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I333" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
@@ -12648,7 +12648,7 @@
         <v>335</v>
       </c>
       <c r="E334" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F334" t="s">
         <v>724</v>
@@ -12657,10 +12657,10 @@
         <v>791</v>
       </c>
       <c r="H334" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I334" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
@@ -12674,7 +12674,7 @@
         <v>336</v>
       </c>
       <c r="E335" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F335" t="s">
         <v>725</v>
@@ -12683,10 +12683,10 @@
         <v>788</v>
       </c>
       <c r="H335" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I335" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
@@ -12700,7 +12700,7 @@
         <v>337</v>
       </c>
       <c r="E336" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F336" t="s">
         <v>726</v>
@@ -12709,10 +12709,10 @@
         <v>994</v>
       </c>
       <c r="H336" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I336" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
@@ -12726,7 +12726,7 @@
         <v>338</v>
       </c>
       <c r="E337" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F337" t="s">
         <v>727</v>
@@ -12735,10 +12735,10 @@
         <v>995</v>
       </c>
       <c r="H337" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I337" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
@@ -12752,7 +12752,7 @@
         <v>339</v>
       </c>
       <c r="E338" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F338" t="s">
         <v>728</v>
@@ -12761,10 +12761,10 @@
         <v>847</v>
       </c>
       <c r="H338" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I338" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
@@ -12778,7 +12778,7 @@
         <v>340</v>
       </c>
       <c r="E339" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F339" t="s">
         <v>729</v>
@@ -12787,10 +12787,10 @@
         <v>996</v>
       </c>
       <c r="H339" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I339" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
@@ -12804,7 +12804,7 @@
         <v>341</v>
       </c>
       <c r="E340" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F340" t="s">
         <v>730</v>
@@ -12813,10 +12813,10 @@
         <v>791</v>
       </c>
       <c r="H340" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I340" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -12830,7 +12830,7 @@
         <v>342</v>
       </c>
       <c r="E341" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F341" t="s">
         <v>731</v>
@@ -12839,10 +12839,10 @@
         <v>791</v>
       </c>
       <c r="H341" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I341" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
@@ -12856,7 +12856,7 @@
         <v>343</v>
       </c>
       <c r="E342" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F342" t="s">
         <v>732</v>
@@ -12865,10 +12865,10 @@
         <v>797</v>
       </c>
       <c r="H342" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I342" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
@@ -12882,7 +12882,7 @@
         <v>344</v>
       </c>
       <c r="E343" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F343" t="s">
         <v>733</v>
@@ -12891,10 +12891,10 @@
         <v>797</v>
       </c>
       <c r="H343" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I343" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
@@ -12911,7 +12911,7 @@
         <v>345</v>
       </c>
       <c r="E344" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F344" t="s">
         <v>734</v>
@@ -12920,10 +12920,10 @@
         <v>997</v>
       </c>
       <c r="H344" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I344" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
@@ -12940,7 +12940,7 @@
         <v>346</v>
       </c>
       <c r="E345" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F345" t="s">
         <v>735</v>
@@ -12949,10 +12949,10 @@
         <v>998</v>
       </c>
       <c r="H345" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I345" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
@@ -12969,7 +12969,7 @@
         <v>347</v>
       </c>
       <c r="E346" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F346" t="s">
         <v>736</v>
@@ -12978,10 +12978,10 @@
         <v>963</v>
       </c>
       <c r="H346" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I346" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -12998,7 +12998,7 @@
         <v>348</v>
       </c>
       <c r="E347" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F347" t="s">
         <v>737</v>
@@ -13007,10 +13007,10 @@
         <v>847</v>
       </c>
       <c r="H347" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I347" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
@@ -13027,7 +13027,7 @@
         <v>349</v>
       </c>
       <c r="E348" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F348" t="s">
         <v>738</v>
@@ -13036,10 +13036,10 @@
         <v>999</v>
       </c>
       <c r="H348" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="I348" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
@@ -13056,7 +13056,7 @@
         <v>350</v>
       </c>
       <c r="E349" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F349" t="s">
         <v>739</v>
@@ -13065,10 +13065,10 @@
         <v>1000</v>
       </c>
       <c r="H349" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="I349" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -13085,7 +13085,7 @@
         <v>351</v>
       </c>
       <c r="E350" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F350" t="s">
         <v>740</v>
@@ -13094,10 +13094,10 @@
         <v>1001</v>
       </c>
       <c r="H350" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="I350" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
@@ -13114,7 +13114,7 @@
         <v>352</v>
       </c>
       <c r="E351" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F351" t="s">
         <v>741</v>
@@ -13123,10 +13123,10 @@
         <v>1002</v>
       </c>
       <c r="H351" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="I351" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
@@ -13140,7 +13140,7 @@
         <v>353</v>
       </c>
       <c r="E352" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F352" t="s">
         <v>742</v>
@@ -13149,10 +13149,10 @@
         <v>1003</v>
       </c>
       <c r="H352" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I352" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
@@ -13166,7 +13166,7 @@
         <v>354</v>
       </c>
       <c r="E353" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F353" t="s">
         <v>743</v>
@@ -13175,10 +13175,10 @@
         <v>1004</v>
       </c>
       <c r="H353" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I353" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
@@ -13192,7 +13192,7 @@
         <v>355</v>
       </c>
       <c r="E354" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F354" t="s">
         <v>744</v>
@@ -13201,10 +13201,10 @@
         <v>791</v>
       </c>
       <c r="H354" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I354" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
@@ -13218,7 +13218,7 @@
         <v>356</v>
       </c>
       <c r="E355" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F355" t="s">
         <v>745</v>
@@ -13227,10 +13227,10 @@
         <v>797</v>
       </c>
       <c r="H355" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I355" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
@@ -13244,7 +13244,7 @@
         <v>357</v>
       </c>
       <c r="E356" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F356" t="s">
         <v>746</v>
@@ -13253,10 +13253,10 @@
         <v>791</v>
       </c>
       <c r="H356" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I356" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
@@ -13270,7 +13270,7 @@
         <v>358</v>
       </c>
       <c r="E357" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F357" t="s">
         <v>747</v>
@@ -13279,10 +13279,10 @@
         <v>791</v>
       </c>
       <c r="H357" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I357" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
@@ -13296,7 +13296,7 @@
         <v>359</v>
       </c>
       <c r="E358" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F358" t="s">
         <v>748</v>
@@ -13305,10 +13305,10 @@
         <v>791</v>
       </c>
       <c r="H358" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I358" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
@@ -13322,7 +13322,7 @@
         <v>360</v>
       </c>
       <c r="E359" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F359" t="s">
         <v>749</v>
@@ -13331,10 +13331,10 @@
         <v>797</v>
       </c>
       <c r="H359" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I359" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
@@ -13348,7 +13348,7 @@
         <v>361</v>
       </c>
       <c r="E360" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F360" t="s">
         <v>750</v>
@@ -13357,10 +13357,10 @@
         <v>941</v>
       </c>
       <c r="H360" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I360" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
@@ -13374,7 +13374,7 @@
         <v>362</v>
       </c>
       <c r="E361" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F361" t="s">
         <v>751</v>
@@ -13383,10 +13383,10 @@
         <v>788</v>
       </c>
       <c r="H361" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I361" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
@@ -13400,7 +13400,7 @@
         <v>363</v>
       </c>
       <c r="E362" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F362" t="s">
         <v>752</v>
@@ -13409,10 +13409,10 @@
         <v>1005</v>
       </c>
       <c r="H362" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="I362" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
@@ -13426,7 +13426,7 @@
         <v>364</v>
       </c>
       <c r="E363" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F363" t="s">
         <v>753</v>
@@ -13435,10 +13435,10 @@
         <v>1006</v>
       </c>
       <c r="H363" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="I363" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
@@ -13452,7 +13452,7 @@
         <v>365</v>
       </c>
       <c r="E364" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F364" t="s">
         <v>754</v>
@@ -13461,10 +13461,10 @@
         <v>1007</v>
       </c>
       <c r="H364" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="I364" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
@@ -13478,7 +13478,7 @@
         <v>366</v>
       </c>
       <c r="E365" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F365" t="s">
         <v>755</v>
@@ -13487,10 +13487,10 @@
         <v>1008</v>
       </c>
       <c r="H365" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="I365" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
@@ -13504,7 +13504,7 @@
         <v>367</v>
       </c>
       <c r="E366" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F366" t="s">
         <v>756</v>
@@ -13513,10 +13513,10 @@
         <v>1009</v>
       </c>
       <c r="H366" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="I366" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
@@ -13530,16 +13530,16 @@
         <v>368</v>
       </c>
       <c r="E367" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F367" t="s">
         <v>757</v>
       </c>
       <c r="H367" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="I367" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
@@ -13553,7 +13553,7 @@
         <v>369</v>
       </c>
       <c r="E368" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F368" t="s">
         <v>758</v>
@@ -13562,10 +13562,10 @@
         <v>1010</v>
       </c>
       <c r="H368" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="I368" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.25">
@@ -13579,7 +13579,7 @@
         <v>370</v>
       </c>
       <c r="E369" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F369" t="s">
         <v>759</v>
@@ -13588,16 +13588,16 @@
         <v>788</v>
       </c>
       <c r="H369" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="I369" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="K369" t="s">
         <v>1041</v>
       </c>
       <c r="L369" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.25">
@@ -13611,7 +13611,7 @@
         <v>371</v>
       </c>
       <c r="E370" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F370" t="s">
         <v>760</v>
@@ -13623,7 +13623,7 @@
         <v>1041</v>
       </c>
       <c r="I370" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.25">
@@ -13637,7 +13637,7 @@
         <v>372</v>
       </c>
       <c r="E371" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F371" t="s">
         <v>761</v>
@@ -13649,7 +13649,7 @@
         <v>1041</v>
       </c>
       <c r="I371" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.25">
@@ -13663,7 +13663,7 @@
         <v>373</v>
       </c>
       <c r="E372" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F372" t="s">
         <v>762</v>
@@ -13675,7 +13675,7 @@
         <v>1041</v>
       </c>
       <c r="I372" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.25">
@@ -13689,7 +13689,7 @@
         <v>374</v>
       </c>
       <c r="E373" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F373" t="s">
         <v>759</v>
@@ -13701,13 +13701,13 @@
         <v>1041</v>
       </c>
       <c r="I373" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="K373" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="L373" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.25">
@@ -13721,7 +13721,7 @@
         <v>375</v>
       </c>
       <c r="E374" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F374" t="s">
         <v>763</v>
@@ -13733,7 +13733,7 @@
         <v>1041</v>
       </c>
       <c r="I374" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.25">
@@ -13747,7 +13747,7 @@
         <v>376</v>
       </c>
       <c r="E375" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F375" t="s">
         <v>764</v>
@@ -13759,7 +13759,7 @@
         <v>1041</v>
       </c>
       <c r="I375" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.25">
@@ -13773,7 +13773,7 @@
         <v>377</v>
       </c>
       <c r="E376" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F376" t="s">
         <v>765</v>
@@ -13785,7 +13785,7 @@
         <v>1041</v>
       </c>
       <c r="I376" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.25">
@@ -13799,7 +13799,7 @@
         <v>378</v>
       </c>
       <c r="E377" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F377" t="s">
         <v>766</v>
@@ -13808,10 +13808,10 @@
         <v>797</v>
       </c>
       <c r="H377" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="I377" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.25">
@@ -13825,7 +13825,7 @@
         <v>379</v>
       </c>
       <c r="E378" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F378" t="s">
         <v>767</v>
@@ -13834,10 +13834,10 @@
         <v>791</v>
       </c>
       <c r="H378" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="I378" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.25">
@@ -13851,7 +13851,7 @@
         <v>380</v>
       </c>
       <c r="E379" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F379" t="s">
         <v>768</v>
@@ -13860,10 +13860,10 @@
         <v>1013</v>
       </c>
       <c r="H379" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I379" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.25">
@@ -13877,7 +13877,7 @@
         <v>381</v>
       </c>
       <c r="E380" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F380" t="s">
         <v>769</v>
@@ -13886,10 +13886,10 @@
         <v>1007</v>
       </c>
       <c r="H380" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I380" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.25">
@@ -13903,7 +13903,7 @@
         <v>382</v>
       </c>
       <c r="E381" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F381" t="s">
         <v>770</v>
@@ -13912,10 +13912,10 @@
         <v>909</v>
       </c>
       <c r="H381" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I381" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.25">
@@ -13929,7 +13929,7 @@
         <v>383</v>
       </c>
       <c r="E382" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F382" t="s">
         <v>771</v>
@@ -13938,16 +13938,16 @@
         <v>1014</v>
       </c>
       <c r="H382" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I382" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="K382" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="L382" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.25">
@@ -13961,7 +13961,7 @@
         <v>384</v>
       </c>
       <c r="E383" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F383" t="s">
         <v>772</v>
@@ -13970,16 +13970,16 @@
         <v>1015</v>
       </c>
       <c r="H383" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I383" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="K383" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="L383" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.25">
@@ -13993,7 +13993,7 @@
         <v>385</v>
       </c>
       <c r="E384" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F384" t="s">
         <v>773</v>
@@ -14002,10 +14002,10 @@
         <v>801</v>
       </c>
       <c r="H384" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I384" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.25">
@@ -14019,7 +14019,7 @@
         <v>386</v>
       </c>
       <c r="E385" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F385" t="s">
         <v>774</v>
@@ -14028,10 +14028,10 @@
         <v>791</v>
       </c>
       <c r="H385" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I385" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.25">
@@ -14045,7 +14045,7 @@
         <v>387</v>
       </c>
       <c r="E386" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F386" t="s">
         <v>775</v>
@@ -14054,10 +14054,10 @@
         <v>797</v>
       </c>
       <c r="H386" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I386" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.25">
@@ -14071,7 +14071,7 @@
         <v>388</v>
       </c>
       <c r="E387" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F387" t="s">
         <v>776</v>
@@ -14080,10 +14080,10 @@
         <v>877</v>
       </c>
       <c r="H387" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I387" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.25">
@@ -14097,7 +14097,7 @@
         <v>389</v>
       </c>
       <c r="E388" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F388" t="s">
         <v>777</v>
@@ -14106,10 +14106,10 @@
         <v>797</v>
       </c>
       <c r="H388" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="I388" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
@@ -14123,7 +14123,7 @@
         <v>390</v>
       </c>
       <c r="E389" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F389" t="s">
         <v>778</v>
@@ -14135,10 +14135,10 @@
         <v>1045</v>
       </c>
       <c r="I389" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="J389" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.25">
@@ -14152,7 +14152,7 @@
         <v>391</v>
       </c>
       <c r="E390" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F390" t="s">
         <v>779</v>
@@ -14164,10 +14164,10 @@
         <v>1045</v>
       </c>
       <c r="I390" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="J390" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.25">
@@ -14181,7 +14181,7 @@
         <v>392</v>
       </c>
       <c r="E391" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F391" t="s">
         <v>780</v>
@@ -14193,10 +14193,10 @@
         <v>1045</v>
       </c>
       <c r="I391" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="J391" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
@@ -14210,7 +14210,7 @@
         <v>393</v>
       </c>
       <c r="E392" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F392" t="s">
         <v>781</v>
@@ -14222,10 +14222,10 @@
         <v>1045</v>
       </c>
       <c r="I392" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="J392" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
   </sheetData>
